--- a/data/equivalence-partitioning.xlsx
+++ b/data/equivalence-partitioning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Project\7-Golang\software-testing-experiment\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC09972-53F9-4E75-8CF0-29D639D3C9C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22549BBD-3C57-4308-B2D1-2C4F67255B66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15330" yWindow="945" windowWidth="9315" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13284" yWindow="900" windowWidth="7944" windowHeight="11100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,50 +25,60 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+  <si>
+    <t>Scalene</t>
+  </si>
+  <si>
+    <t>Not a Triangle</t>
+  </si>
+  <si>
+    <t>Equilateral</t>
+  </si>
+  <si>
+    <t>Isosceles</t>
+  </si>
   <si>
     <t>3,4,5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,4,5</t>
+  </si>
+  <si>
+    <t>200,4,5</t>
+  </si>
+  <si>
+    <t>3,0,5</t>
+  </si>
+  <si>
+    <t>3,200,5</t>
+  </si>
+  <si>
+    <t>3,4,0</t>
+  </si>
+  <si>
+    <t>3,4,200</t>
   </si>
   <si>
     <t>1,2,3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3,1,2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1,3,2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3,3,3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2,2,3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3,2,2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2,3,2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Scalene</t>
-  </si>
-  <si>
-    <t>Not a Triangle</t>
-  </si>
-  <si>
-    <t>Equilateral</t>
-  </si>
-  <si>
-    <t>Isosceles</t>
   </si>
 </sst>
 </file>
@@ -396,81 +406,129 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="16.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.21875" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>11</v>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/data/equivalence-partitioning.xlsx
+++ b/data/equivalence-partitioning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Project\7-Golang\software-testing-experiment\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22549BBD-3C57-4308-B2D1-2C4F67255B66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDB9270C-ED22-4164-971E-0F1990D3F33E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13284" yWindow="900" windowWidth="7944" windowHeight="11100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
   <si>
     <t>Scalene</t>
   </si>
@@ -33,52 +33,75 @@
     <t>Not a Triangle</t>
   </si>
   <si>
+    <t>Isosceles</t>
+  </si>
+  <si>
+    <t>3,4,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,4,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not a Triangle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200,4,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,0,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,200,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,4,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,4,200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,1,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,3,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,3,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Equilateral</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,2,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,2,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,3,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Isosceles</t>
-  </si>
-  <si>
-    <t>3,4,5</t>
-  </si>
-  <si>
-    <t>0,4,5</t>
-  </si>
-  <si>
-    <t>200,4,5</t>
-  </si>
-  <si>
-    <t>3,0,5</t>
-  </si>
-  <si>
-    <t>3,200,5</t>
-  </si>
-  <si>
-    <t>3,4,0</t>
-  </si>
-  <si>
-    <t>3,4,200</t>
-  </si>
-  <si>
-    <t>1,2,3</t>
-  </si>
-  <si>
-    <t>3,1,2</t>
-  </si>
-  <si>
-    <t>1,3,2</t>
-  </si>
-  <si>
-    <t>3,3,3</t>
-  </si>
-  <si>
-    <t>2,2,3</t>
-  </si>
-  <si>
-    <t>3,2,2</t>
-  </si>
-  <si>
-    <t>2,3,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -409,7 +432,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -421,7 +444,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -429,10 +452,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -440,7 +463,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -504,31 +527,31 @@
         <v>14</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
